--- a/natmiOut/OldD7/LR-pairs_lrc2p/Edn3-Ednrb.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Edn3-Ednrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.954067907027942</v>
+        <v>0.012975</v>
       </c>
       <c r="H2">
-        <v>0.954067907027942</v>
+        <v>0.038925</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.004878150260562778</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.004878150260562778</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>57.819887681783</v>
+        <v>70.24576333333334</v>
       </c>
       <c r="N2">
-        <v>57.819887681783</v>
+        <v>210.73729</v>
       </c>
       <c r="O2">
-        <v>0.8341067388947159</v>
+        <v>0.8038202726758664</v>
       </c>
       <c r="P2">
-        <v>0.8341067388947159</v>
+        <v>0.8038202726758664</v>
       </c>
       <c r="Q2">
-        <v>55.16409922514939</v>
+        <v>0.9114387792500002</v>
       </c>
       <c r="R2">
-        <v>55.16409922514939</v>
+        <v>8.202949013250002</v>
       </c>
       <c r="S2">
-        <v>0.8341067388947159</v>
+        <v>0.003921156072599422</v>
       </c>
       <c r="T2">
-        <v>0.8341067388947159</v>
+        <v>0.003921156072599422</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.954067907027942</v>
+        <v>0.012975</v>
       </c>
       <c r="H3">
-        <v>0.954067907027942</v>
+        <v>0.038925</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.004878150260562778</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.004878150260562778</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.96543205822685</v>
+        <v>0.152389</v>
       </c>
       <c r="N3">
-        <v>2.96543205822685</v>
+        <v>0.457167</v>
       </c>
       <c r="O3">
-        <v>0.04277917102009091</v>
+        <v>0.001743782994449666</v>
       </c>
       <c r="P3">
-        <v>0.04277917102009091</v>
+        <v>0.001743782994449667</v>
       </c>
       <c r="Q3">
-        <v>2.829223557226053</v>
+        <v>0.001977247275</v>
       </c>
       <c r="R3">
-        <v>2.829223557226053</v>
+        <v>0.017795225475</v>
       </c>
       <c r="S3">
-        <v>0.04277917102009091</v>
+        <v>8.506435468739582E-06</v>
       </c>
       <c r="T3">
-        <v>0.04277917102009091</v>
+        <v>8.506435468739582E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,371 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.012975</v>
+      </c>
+      <c r="H4">
+        <v>0.038925</v>
+      </c>
+      <c r="I4">
+        <v>0.004878150260562778</v>
+      </c>
+      <c r="J4">
+        <v>0.004878150260562778</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>3.0875</v>
+      </c>
+      <c r="N4">
+        <v>9.262499999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.03533017471971957</v>
+      </c>
+      <c r="P4">
+        <v>0.03533017471971957</v>
+      </c>
+      <c r="Q4">
+        <v>0.0400603125</v>
+      </c>
+      <c r="R4">
+        <v>0.3605428125</v>
+      </c>
+      <c r="S4">
+        <v>0.0001723459010147285</v>
+      </c>
+      <c r="T4">
+        <v>0.0001723459010147285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.012975</v>
+      </c>
+      <c r="H5">
+        <v>0.038925</v>
+      </c>
+      <c r="I5">
+        <v>0.004878150260562778</v>
+      </c>
+      <c r="J5">
+        <v>0.004878150260562778</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>13.90423533333333</v>
+      </c>
+      <c r="N5">
+        <v>41.712706</v>
+      </c>
+      <c r="O5">
+        <v>0.1591057696099644</v>
+      </c>
+      <c r="P5">
+        <v>0.1591057696099644</v>
+      </c>
+      <c r="Q5">
+        <v>0.18040745345</v>
+      </c>
+      <c r="R5">
+        <v>1.62366708105</v>
+      </c>
+      <c r="S5">
+        <v>0.000776141851479889</v>
+      </c>
+      <c r="T5">
+        <v>0.000776141851479889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.646844666666667</v>
+      </c>
+      <c r="H6">
+        <v>7.940534</v>
+      </c>
+      <c r="I6">
+        <v>0.9951218497394373</v>
+      </c>
+      <c r="J6">
+        <v>0.9951218497394373</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>70.24576333333334</v>
+      </c>
+      <c r="N6">
+        <v>210.73729</v>
+      </c>
+      <c r="O6">
+        <v>0.8038202726758664</v>
+      </c>
+      <c r="P6">
+        <v>0.8038202726758664</v>
+      </c>
+      <c r="Q6">
+        <v>185.9296240347622</v>
+      </c>
+      <c r="R6">
+        <v>1673.36661631286</v>
+      </c>
+      <c r="S6">
+        <v>0.7998991166032671</v>
+      </c>
+      <c r="T6">
+        <v>0.7998991166032671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.954067907027942</v>
-      </c>
-      <c r="H4">
-        <v>0.954067907027942</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>8.53421094547625</v>
-      </c>
-      <c r="N4">
-        <v>8.53421094547625</v>
-      </c>
-      <c r="O4">
-        <v>0.1231140900851932</v>
-      </c>
-      <c r="P4">
-        <v>0.1231140900851932</v>
-      </c>
-      <c r="Q4">
-        <v>8.14221677488548</v>
-      </c>
-      <c r="R4">
-        <v>8.14221677488548</v>
-      </c>
-      <c r="S4">
-        <v>0.1231140900851932</v>
-      </c>
-      <c r="T4">
-        <v>0.1231140900851932</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.646844666666667</v>
+      </c>
+      <c r="H7">
+        <v>7.940534</v>
+      </c>
+      <c r="I7">
+        <v>0.9951218497394373</v>
+      </c>
+      <c r="J7">
+        <v>0.9951218497394373</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.152389</v>
+      </c>
+      <c r="N7">
+        <v>0.457167</v>
+      </c>
+      <c r="O7">
+        <v>0.001743782994449666</v>
+      </c>
+      <c r="P7">
+        <v>0.001743782994449667</v>
+      </c>
+      <c r="Q7">
+        <v>0.4033500119086667</v>
+      </c>
+      <c r="R7">
+        <v>3.630150107178</v>
+      </c>
+      <c r="S7">
+        <v>0.001735276558980927</v>
+      </c>
+      <c r="T7">
+        <v>0.001735276558980927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.646844666666667</v>
+      </c>
+      <c r="H8">
+        <v>7.940534</v>
+      </c>
+      <c r="I8">
+        <v>0.9951218497394373</v>
+      </c>
+      <c r="J8">
+        <v>0.9951218497394373</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.0875</v>
+      </c>
+      <c r="N8">
+        <v>9.262499999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.03533017471971957</v>
+      </c>
+      <c r="P8">
+        <v>0.03533017471971957</v>
+      </c>
+      <c r="Q8">
+        <v>8.172132908333333</v>
+      </c>
+      <c r="R8">
+        <v>73.54919617499999</v>
+      </c>
+      <c r="S8">
+        <v>0.03515782881870484</v>
+      </c>
+      <c r="T8">
+        <v>0.03515782881870484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.646844666666667</v>
+      </c>
+      <c r="H9">
+        <v>7.940534</v>
+      </c>
+      <c r="I9">
+        <v>0.9951218497394373</v>
+      </c>
+      <c r="J9">
+        <v>0.9951218497394373</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.90423533333333</v>
+      </c>
+      <c r="N9">
+        <v>41.712706</v>
+      </c>
+      <c r="O9">
+        <v>0.1591057696099644</v>
+      </c>
+      <c r="P9">
+        <v>0.1591057696099644</v>
+      </c>
+      <c r="Q9">
+        <v>36.80235113611155</v>
+      </c>
+      <c r="R9">
+        <v>331.221160225004</v>
+      </c>
+      <c r="S9">
+        <v>0.1583296277584845</v>
+      </c>
+      <c r="T9">
+        <v>0.1583296277584845</v>
       </c>
     </row>
   </sheetData>
